--- a/results/linear_worst.xlsx
+++ b/results/linear_worst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\algorytmy_struktury_danych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\algorytmy_struktury_danych\search\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D0009-ED1D-487C-A1EE-E01C10F3F93C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38073467-8984-4D7E-B943-ADAD7131C118}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,6 +629,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyszukiwanie liniowe - przypadek pesymistyczny</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -663,6 +688,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6831,6 +6859,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas wyszukiwania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6896,6 +6979,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość tablicy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6939,37 +7077,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10003,7 +10110,7 @@
   <dimension ref="A3:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
